--- a/predict/skenario.xlsx
+++ b/predict/skenario.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
   <si>
     <t>MFCC</t>
   </si>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,8 +441,8 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -527,6 +527,91 @@
         <v>30</v>
       </c>
       <c r="E5" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3">
+        <v>67</v>
+      </c>
+      <c r="E12" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
         <v>12</v>
       </c>
     </row>
@@ -537,10 +622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,6 +705,74 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="5"/>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -627,10 +780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,6 +862,57 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>58</v>
+      </c>
+      <c r="D8" s="4">
+        <v>62</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -716,10 +920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +969,40 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
